--- a/ok.xlsx
+++ b/ok.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="16420" windowWidth="28800" xWindow="0" yWindow="460"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="16425" windowWidth="28800" xWindow="0" yWindow="465"/>
   </bookViews>
   <sheets>
-    <sheet name="ok" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ok" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
@@ -330,13 +330,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showRuler="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="G5" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -359,6 +359,16 @@
           <t>Class</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -378,7 +388,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -388,11 +398,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>echo_two</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>A</t>
@@ -412,7 +417,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>echo_three</t>
+          <t>echo_four</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -423,6 +428,16 @@
       <c r="D4" t="inlineStr">
         <is>
           <t>9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10086</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>henan</t>
         </is>
       </c>
     </row>
